--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N2">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O2">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P2">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q2">
-        <v>1.545722973127778</v>
+        <v>4.672461003754444</v>
       </c>
       <c r="R2">
-        <v>13.91150675815</v>
+        <v>42.05214903378999</v>
       </c>
       <c r="S2">
-        <v>1.92890794307856E-05</v>
+        <v>5.998931316771188E-05</v>
       </c>
       <c r="T2">
-        <v>1.928907943078561E-05</v>
+        <v>5.99893131677119E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.140954</v>
       </c>
       <c r="O3">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P3">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q3">
-        <v>30.69898675521711</v>
+        <v>37.08960317315711</v>
       </c>
       <c r="R3">
-        <v>276.290880796954</v>
+        <v>333.8064285584139</v>
       </c>
       <c r="S3">
-        <v>0.0003830927043594294</v>
+        <v>0.0004761901315458498</v>
       </c>
       <c r="T3">
-        <v>0.0003830927043594295</v>
+        <v>0.0004761901315458499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N4">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O4">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P4">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q4">
-        <v>33.53257111943011</v>
+        <v>126.567095598594</v>
       </c>
       <c r="R4">
-        <v>301.793140074871</v>
+        <v>1139.103860387346</v>
       </c>
       <c r="S4">
-        <v>0.0004184530081301222</v>
+        <v>0.001624983735228795</v>
       </c>
       <c r="T4">
-        <v>0.0004184530081301222</v>
+        <v>0.001624983735228796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N5">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O5">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P5">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q5">
-        <v>447.2381069421089</v>
+        <v>480.3007455221265</v>
       </c>
       <c r="R5">
-        <v>4025.14296247898</v>
+        <v>4322.706709699139</v>
       </c>
       <c r="S5">
-        <v>0.00558108504515795</v>
+        <v>0.006166538750063493</v>
       </c>
       <c r="T5">
-        <v>0.005581085045157951</v>
+        <v>0.006166538750063494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N6">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O6">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P6">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q6">
-        <v>2.399895305316667</v>
+        <v>6.004518326656667</v>
       </c>
       <c r="R6">
-        <v>21.59905774785</v>
+        <v>54.04066493991</v>
       </c>
       <c r="S6">
-        <v>2.994829731756593E-05</v>
+        <v>7.709147920756032E-05</v>
       </c>
       <c r="T6">
-        <v>2.994829731756593E-05</v>
+        <v>7.709147920756032E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.140954</v>
       </c>
       <c r="O7">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P7">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q7">
         <v>47.66336237000067</v>
@@ -883,10 +883,10 @@
         <v>428.970261330006</v>
       </c>
       <c r="S7">
-        <v>0.0005947911745355547</v>
+        <v>0.0006119456897644707</v>
       </c>
       <c r="T7">
-        <v>0.0005947911745355546</v>
+        <v>0.0006119456897644707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N8">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O8">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P8">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q8">
-        <v>52.06279611790767</v>
+        <v>162.649713815226</v>
       </c>
       <c r="R8">
-        <v>468.565165061169</v>
+        <v>1463.847424337034</v>
       </c>
       <c r="S8">
-        <v>0.0006496917152463783</v>
+        <v>0.002088245276067603</v>
       </c>
       <c r="T8">
-        <v>0.0006496917152463782</v>
+        <v>0.002088245276067603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N9">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O9">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P9">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q9">
-        <v>694.3835679929134</v>
+        <v>617.22818584834</v>
       </c>
       <c r="R9">
-        <v>6249.45211193622</v>
+        <v>5555.053672635059</v>
       </c>
       <c r="S9">
-        <v>0.008665213645201094</v>
+        <v>0.007924538034034421</v>
       </c>
       <c r="T9">
-        <v>0.008665213645201092</v>
+        <v>0.007924538034034421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N10">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O10">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P10">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q10">
-        <v>3.533254418855555</v>
+        <v>6.735731419913335</v>
       </c>
       <c r="R10">
-        <v>31.7992897697</v>
+        <v>60.62158277922001</v>
       </c>
       <c r="S10">
-        <v>4.409148749117098E-05</v>
+        <v>8.647945937656737E-05</v>
       </c>
       <c r="T10">
-        <v>4.409148749117099E-05</v>
+        <v>8.647945937656739E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.140954</v>
       </c>
       <c r="O11">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P11">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q11">
-        <v>70.17255516865022</v>
+        <v>53.46767051556134</v>
       </c>
       <c r="R11">
-        <v>631.552996517852</v>
+        <v>481.209034640052</v>
       </c>
       <c r="S11">
-        <v>0.000875683427134641</v>
+        <v>0.0006864666881818261</v>
       </c>
       <c r="T11">
-        <v>0.0008756834271346411</v>
+        <v>0.0006864666881818262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N12">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O12">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P12">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q12">
-        <v>76.64963718794421</v>
+        <v>182.456731445292</v>
       </c>
       <c r="R12">
-        <v>689.8467346914979</v>
+        <v>1642.110583007628</v>
       </c>
       <c r="S12">
-        <v>0.0009565109439160372</v>
+        <v>0.002342545821877116</v>
       </c>
       <c r="T12">
-        <v>0.0009565109439160373</v>
+        <v>0.002342545821877116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N13">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O13">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P13">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q13">
-        <v>1022.308683448138</v>
+        <v>692.3924715522801</v>
       </c>
       <c r="R13">
-        <v>9200.778151033241</v>
+        <v>6231.53224397052</v>
       </c>
       <c r="S13">
-        <v>0.01275739168054849</v>
+        <v>0.00888956564378823</v>
       </c>
       <c r="T13">
-        <v>0.01275739168054849</v>
+        <v>0.00888956564378823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N14">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O14">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P14">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q14">
-        <v>233.9679139643112</v>
+        <v>543.6617661013178</v>
       </c>
       <c r="R14">
-        <v>2105.7112256788</v>
+        <v>4892.95589491186</v>
       </c>
       <c r="S14">
-        <v>0.0029196859690716</v>
+        <v>0.00698002528384018</v>
       </c>
       <c r="T14">
-        <v>0.0029196859690716</v>
+        <v>0.00698002528384018</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.140954</v>
       </c>
       <c r="O15">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P15">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q15">
-        <v>4646.743314814157</v>
+        <v>4315.541456400209</v>
       </c>
       <c r="R15">
-        <v>41820.68983332741</v>
+        <v>38839.87310760187</v>
       </c>
       <c r="S15">
-        <v>0.05798671718810824</v>
+        <v>0.05540685469781634</v>
       </c>
       <c r="T15">
-        <v>0.05798671718810823</v>
+        <v>0.05540685469781634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N16">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O16">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P16">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q16">
-        <v>5075.647998423333</v>
+        <v>14726.648476714</v>
       </c>
       <c r="R16">
-        <v>45680.83198580999</v>
+        <v>132539.836290426</v>
       </c>
       <c r="S16">
-        <v>0.06333901941444608</v>
+        <v>0.1890741360217955</v>
       </c>
       <c r="T16">
-        <v>0.06333901941444607</v>
+        <v>0.1890741360217956</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N17">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O17">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P17">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q17">
-        <v>67696.067630317</v>
+        <v>55885.1430457143</v>
       </c>
       <c r="R17">
-        <v>609264.608672853</v>
+        <v>502966.2874114286</v>
       </c>
       <c r="S17">
-        <v>0.8447793352199049</v>
+        <v>0.7175044039742443</v>
       </c>
       <c r="T17">
-        <v>0.8447793352199048</v>
+        <v>0.7175044039742443</v>
       </c>
     </row>
   </sheetData>
